--- a/Base/Teams/Bears/Players Stats.xlsx
+++ b/Base/Teams/Bears/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Bears/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bears/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03A5D42-C17D-4BF5-8377-3B8B0EEA8589}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B91527-2D72-455D-A2C2-C074362593BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>J.Grant</t>
+  </si>
+  <si>
+    <t>J.Horsted</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1117,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BC04A-82E2-43FD-B050-62440FD9F359}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A6:K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,6 +1285,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Bears/Players Stats.xlsx
+++ b/Base/Teams/Bears/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bears/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B91527-2D72-455D-A2C2-C074362593BC}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EAA9973-7078-42F7-BE31-0B119A23C636}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>M.Goodwin</t>
   </si>
   <si>
-    <t>B.Perriman</t>
-  </si>
-  <si>
     <t>D.Byrd</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>J.Horsted</t>
+  </si>
+  <si>
+    <t>D.Newsome</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BC04A-82E2-43FD-B050-62440FD9F359}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
